--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC1_TC1.xlsx
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.08434849886304036</v>
+        <v>0.08781567715392302</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2099719997849161</v>
+        <v>0.2243203987552034</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2099719997849161, 'ngram_match_score': 0.0841736823817402, 'weighted_ngram_match_score': 0.14044947283331718, 'syntax_match_score': 0.42494226327944573, 'dataflow_match_score': 0.19032258064516128}</t>
+          <t>{'codebleu': 0.22432039875520338, 'ngram_match_score': 0.08764631151099843, 'weighted_ngram_match_score': 0.13212652987798904, 'syntax_match_score': 0.4387990762124711, 'dataflow_match_score': 0.23870967741935484}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.8047694415538189</v>
+        <v>0.8943429703917645</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
